--- a/metrics/week 7 du.xlsx
+++ b/metrics/week 7 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB0812-D5B5-49F9-98DE-0311474B1473}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35ED265-6576-4104-A68C-C3232BC90CCF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Person</t>
   </si>
@@ -108,10 +108,19 @@
     <t>Coding round 1 features (eg. add bid) involves planning ahead to ensure feature integrates with round 2, which is difficult as round 2 code is not done yet</t>
   </si>
   <si>
-    <t>Deployment to AWS</t>
+    <t>PM Review Preparation, debug, deployment</t>
   </si>
   <si>
-    <t>No Issues</t>
+    <t>No issues</t>
+  </si>
+  <si>
+    <t>Code round 1 clearing logic 1st half</t>
+  </si>
+  <si>
+    <t>Code round 1 clearing logic 2nd half, PM Review Preparation, debug, deployment</t>
+  </si>
+  <si>
+    <t>Too many logics to understand along the way</t>
   </si>
 </sst>
 </file>
@@ -244,6 +253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -259,12 +274,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,9 +495,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -503,21 +512,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -537,8 +546,8 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -579,239 +588,269 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
